--- a/Буливая таблица Артем Котохин.xlsx
+++ b/Буливая таблица Артем Котохин.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\3\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0A3E58B0-E0EE-44E7-BA69-0E07EE9248ED}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0553A25A-18F9-4DC8-88CC-9639D7213848}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     </r>
   </si>
   <si>
-    <t>XꚚ(YꚚ(x*z)</t>
-  </si>
-  <si>
     <t>F(X,Y,Z)</t>
   </si>
   <si>
@@ -140,6 +137,51 @@
         <family val="2"/>
       </rPr>
       <t>(X*Z)))</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>X</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ꚛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(Y</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Ꚛ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(x*z)</t>
     </r>
   </si>
 </sst>
@@ -529,7 +571,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -566,7 +608,7 @@
         <v>7</v>
       </c>
       <c r="J1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15">
@@ -592,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="b">
-        <f>OR(A2, F2)</f>
+        <f>IF(A2=0, F2, "ИСТИНА")</f>
         <v>0</v>
       </c>
       <c r="H2" t="s">
@@ -602,7 +644,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" ht="15">
       <c r="A3" s="1">
         <v>0</v>
       </c>
@@ -625,14 +667,14 @@
         <v>0</v>
       </c>
       <c r="G3" t="b">
-        <f t="shared" ref="G3:G9" si="3">OR(A3, F3)</f>
+        <f t="shared" ref="G3:G9" si="3">IF(A3=0, F3, "ИСТИНА")</f>
         <v>0</v>
       </c>
       <c r="H3" t="s">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -665,7 +707,7 @@
         <v>6</v>
       </c>
       <c r="I4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -717,9 +759,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>ИСТИНА</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -744,9 +786,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G7" t="b">
+      <c r="G7" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>ИСТИНА</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -771,9 +813,9 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" t="b">
+      <c r="G8" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>ИСТИНА</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -798,9 +840,9 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="G9" t="b">
+      <c r="G9" t="str">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>ИСТИНА</v>
       </c>
     </row>
   </sheetData>
